--- a/Assets/ERang/Excels/ExcelCard.xlsx
+++ b/Assets/ERang/Excels/ExcelCard.xlsx
@@ -24,70 +24,183 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>uid</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>atk</t>
-  </si>
-  <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>def</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>card_a</t>
-  </si>
-  <si>
-    <t>카드 a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>card_b</t>
-  </si>
-  <si>
-    <t>카드 b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>card_c</t>
-  </si>
-  <si>
-    <t>카드 c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>card_d</t>
-  </si>
-  <si>
-    <t>카드 d</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+  <si>
+    <t>Card_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#NameDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardNameDesc_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreatureAI_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostMana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ability_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어 볼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금광</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍요의 부적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서령의 가호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레프리칸의 금단지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_1002</t>
+  </si>
+  <si>
+    <t>CardName_1003</t>
+  </si>
+  <si>
+    <t>CardName_1004</t>
+  </si>
+  <si>
+    <t>CardName_1005</t>
+  </si>
+  <si>
+    <t>CardName_1006</t>
+  </si>
+  <si>
+    <t>CardDesc_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_1002</t>
+  </si>
+  <si>
+    <t>CardDesc_1003</t>
+  </si>
+  <si>
+    <t>CardDesc_1004</t>
+  </si>
+  <si>
+    <t>CardDesc_1005</t>
+  </si>
+  <si>
+    <t>CardDesc_1006</t>
+  </si>
+  <si>
+    <t>Magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9001005,9001006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9001002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9001003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9001004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9001005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Extinction </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompleteExtinction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -98,6 +211,13 @@
     <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="D2Coding"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -122,8 +242,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -472,132 +597,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="1"/>
+    <col min="6" max="6" width="14.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="8.796875" style="1"/>
+    <col min="11" max="11" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.796875" style="2"/>
+    <col min="14" max="16384" width="8.796875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
+    <row r="2" spans="1:13">
+      <c r="A2" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>9001001</v>
+      </c>
+      <c r="L2" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1001</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="M3" s="3"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
+    <row r="4" spans="1:13">
+      <c r="A4" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1">
         <v>3</v>
       </c>
-      <c r="E3">
-        <v>220</v>
-      </c>
-      <c r="F3">
+      <c r="H4" s="1">
+        <v>150</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
+      <c r="M5" s="3"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>330</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="3"/>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>440</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="K6:K7 K3:K5" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>